--- a/jett-core/templates/TagLoopListenersTemplate.xlsx
+++ b/jett-core/templates/TagLoopListenersTemplate.xlsx
@@ -11,13 +11,14 @@
     <sheet name="byInstance" sheetId="2" r:id="rId2"/>
     <sheet name="implClass" sheetId="3" r:id="rId3"/>
     <sheet name="implInstance" sheetId="4" r:id="rId4"/>
+    <sheet name="before" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Employees</t>
   </si>
@@ -65,6 +66,12 @@
   </si>
   <si>
     <t>${employees.firstName}?@onLoopProcessed=${blockShadingLoopListener};left=1;right=2;extraRows=1</t>
+  </si>
+  <si>
+    <t>&lt;jt:for var="x" start="1" end="5" onLoopProcessed="${blockShadingLoopListener}" copyRight="true"&gt;${x}&lt;/jt:for&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jt:for var="x" start="1" end="1" onLoopProcessed="${blockShadingLoopListener}"&gt;The above count, using ${x}, should have 3 replaced!&lt;/jt:for&gt;</t>
   </si>
 </sst>
 </file>
@@ -674,4 +681,28 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>